--- a/forecasting.xlsx
+++ b/forecasting.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00 &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0 &quot;€&quot;"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,70 +437,75 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Contropartita</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Antecedenti 2025</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>Gennaio</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>Febbraio</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>Marzo</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Aprile</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>Maggio</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>Giugno</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>Luglio</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>Agosto</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>Settembre</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>Ottobre</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Novembre</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
+        <is>
+          <t>Dicembre</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Totale Anno</t>
         </is>
@@ -517,9 +522,7 @@
           <t>F0002337</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
@@ -527,20 +530,20 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" s="1" t="n">
         <v>0</v>
       </c>
@@ -557,6 +560,9 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -571,9 +577,7 @@
           <t>F0002795</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
@@ -599,11 +603,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>16318.56959999999</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" s="1" t="n">
         <v>0</v>
       </c>
@@ -611,6 +615,9 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="n">
         <v>16318.56959999999</v>
       </c>
     </row>
@@ -625,8 +632,10 @@
           <t>F0007038</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>54.10.0057</t>
+        </is>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
@@ -635,17 +644,17 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>67.8</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" s="1" t="n">
         <v>0</v>
       </c>
@@ -665,6 +674,9 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
         <v>94.8</v>
       </c>
     </row>
@@ -679,8 +691,10 @@
           <t>F0000081</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>50.10.0503</t>
+        </is>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
@@ -707,18 +721,21 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
         <v>2306.4</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>3868.8</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>2845.8</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>1841.4</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>10862.4</v>
       </c>
     </row>
@@ -733,9 +750,7 @@
           <t>F0002166</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
@@ -752,11 +767,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>806.04</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" s="1" t="n">
         <v>0</v>
       </c>
@@ -773,6 +788,9 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
         <v>806.04</v>
       </c>
     </row>
@@ -787,8 +805,10 @@
           <t>F0000175</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>50.10.0504</t>
+        </is>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
@@ -815,18 +835,21 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>23538.52</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="N7" s="1" t="n">
         <v>13866.58</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>22869</v>
       </c>
       <c r="O7" s="1" t="n">
         <v>22869</v>
       </c>
       <c r="P7" s="1" t="n">
+        <v>22869</v>
+      </c>
+      <c r="Q7" s="1" t="n">
         <v>83143.10000000001</v>
       </c>
     </row>
@@ -841,8 +864,10 @@
           <t>F0010242</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>54.10.0503</t>
+        </is>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
@@ -863,24 +888,27 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
         <v>27862.02</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>10375</v>
       </c>
-      <c r="O8" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="n">
         <v>38687.02</v>
       </c>
     </row>
@@ -895,12 +923,14 @@
           <t>F0003144</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>54.10.0504</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" s="1" t="n">
         <v>0</v>
       </c>
@@ -923,18 +953,21 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
         <v>1512</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="N9" s="1" t="n">
         <v>6322.92</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
         <v>18779.6</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>26696.42</v>
       </c>
     </row>
@@ -949,12 +982,10 @@
           <t>F0002921</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" s="1" t="n">
         <v>4400</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
@@ -989,6 +1020,9 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="n">
         <v>4400</v>
       </c>
     </row>
@@ -1003,8 +1037,10 @@
           <t>F0002329</t>
         </is>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>50.10.0301</t>
+        </is>
       </c>
       <c r="D11" s="1" t="n">
         <v>0</v>
@@ -1031,18 +1067,21 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>3492.5</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="N11" s="1" t="n">
         <v>2681.25</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="n">
         <v>6173.75</v>
       </c>
     </row>
@@ -1057,12 +1096,14 @@
           <t>F0001656</t>
         </is>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>50.10.0302</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>47.39</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
@@ -1097,6 +1138,9 @@
         <v>0</v>
       </c>
       <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
         <v>47.39</v>
       </c>
     </row>
@@ -1111,9 +1155,7 @@
           <t>F0003409</t>
         </is>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
@@ -1130,20 +1172,20 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>14725.27</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>197.8</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="L13" s="1" t="n">
         <v>263.74</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="M13" s="1" t="n">
         <v>6428.58</v>
       </c>
-      <c r="M13" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N13" s="1" t="n">
         <v>0</v>
       </c>
@@ -1151,6 +1193,9 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="n">
         <v>21615.39</v>
       </c>
     </row>
@@ -1165,8 +1210,10 @@
           <t>F0007054</t>
         </is>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>54.10.0504</t>
+        </is>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
@@ -1184,27 +1231,30 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>93.583</v>
       </c>
-      <c r="K14" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>2982.83</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>2719.74</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>2355.92</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>1987.78</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>10313.853</v>
       </c>
     </row>
@@ -1219,12 +1269,10 @@
           <t>00099862</t>
         </is>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
@@ -1259,6 +1307,9 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1273,12 +1324,14 @@
           <t>F0001745</t>
         </is>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>52.10.0011</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>108.47</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
@@ -1313,6 +1366,9 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="n">
         <v>108.47</v>
       </c>
     </row>
@@ -1327,8 +1383,10 @@
           <t>F0001806</t>
         </is>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>54.10.0004</t>
+        </is>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
@@ -1349,11 +1407,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="K17" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" s="1" t="n">
         <v>0</v>
       </c>
@@ -1367,6 +1425,9 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -1381,9 +1442,7 @@
           <t>F0002891</t>
         </is>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
@@ -1403,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
         <v>193.5</v>
       </c>
-      <c r="K18" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" s="1" t="n">
         <v>0</v>
       </c>
@@ -1421,6 +1480,9 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="n">
         <v>193.5</v>
       </c>
     </row>
@@ -1435,9 +1497,7 @@
           <t>F0010266</t>
         </is>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
@@ -1466,15 +1526,18 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
         <v>14830</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>15714</v>
       </c>
-      <c r="O19" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
         <v>30544</v>
       </c>
     </row>
@@ -1489,12 +1552,10 @@
           <t>F0007032</t>
         </is>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" s="1" t="n">
         <v>1050</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
@@ -1520,15 +1581,18 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="N20" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="n">
         <v>1650</v>
       </c>
     </row>
@@ -1543,8 +1607,10 @@
           <t>F0000686</t>
         </is>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>50.10.0301</t>
+        </is>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
@@ -1553,11 +1619,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>7200</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
@@ -1583,6 +1649,9 @@
         <v>0</v>
       </c>
       <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="n">
         <v>7200</v>
       </c>
     </row>
@@ -1597,24 +1666,26 @@
           <t>F0002765</t>
         </is>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>54.10.0501</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <v>135.8685</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" s="1" t="n">
         <v>0</v>
       </c>
@@ -1637,6 +1708,9 @@
         <v>0</v>
       </c>
       <c r="P22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="n">
         <v>2260.8685</v>
       </c>
     </row>
@@ -1651,18 +1725,16 @@
           <t>F0007048</t>
         </is>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" s="1" t="n">
         <v>0</v>
       </c>
@@ -1691,6 +1763,9 @@
         <v>0</v>
       </c>
       <c r="P23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="n">
         <v>500</v>
       </c>
     </row>
@@ -1705,8 +1780,10 @@
           <t>F0002327</t>
         </is>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>0</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>50.20.0503</t>
+        </is>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
@@ -1733,11 +1810,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="M24" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" s="1" t="n">
         <v>0</v>
       </c>
@@ -1745,6 +1822,9 @@
         <v>0</v>
       </c>
       <c r="P24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1" t="n">
         <v>428</v>
       </c>
     </row>
@@ -1759,8 +1839,10 @@
           <t>F0001662</t>
         </is>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>0</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>50.10.0701</t>
+        </is>
       </c>
       <c r="D25" s="1" t="n">
         <v>0</v>
@@ -1790,15 +1872,18 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
         <v>5806.87</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="O25" s="1" t="n">
         <v>10348.86</v>
       </c>
-      <c r="O25" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="n">
         <v>16155.73</v>
       </c>
     </row>
@@ -1813,12 +1898,14 @@
           <t>F0002696</t>
         </is>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>52.10.0011</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>226.4</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" s="1" t="n">
         <v>0</v>
       </c>
@@ -1853,6 +1940,9 @@
         <v>0</v>
       </c>
       <c r="P26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="n">
         <v>226.4</v>
       </c>
     </row>
@@ -1867,12 +1957,14 @@
           <t>F0001648</t>
         </is>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>52.10.0202</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>69.7</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" s="1" t="n">
         <v>0</v>
       </c>
@@ -1907,6 +1999,9 @@
         <v>0</v>
       </c>
       <c r="P27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="n">
         <v>69.7</v>
       </c>
     </row>
@@ -1921,9 +2016,7 @@
           <t>F0003340</t>
         </is>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
@@ -1931,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>776</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
@@ -1961,6 +2054,9 @@
         <v>0</v>
       </c>
       <c r="P28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="n">
         <v>776</v>
       </c>
     </row>
@@ -1975,46 +2071,51 @@
           <t>F0000165</t>
         </is>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>0</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>54.10.0503</t>
+        </is>
       </c>
       <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>1290</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="I29" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="J29" s="1" t="n">
         <v>760</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="K29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="K29" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="N29" s="1" t="n">
         <v>8803.109999999999</v>
       </c>
-      <c r="N29" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1" t="n">
         <v>11261.11</v>
       </c>
     </row>
@@ -2029,9 +2130,7 @@
           <t>F0002556</t>
         </is>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
@@ -2057,11 +2156,11 @@
         <v>0</v>
       </c>
       <c r="L30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
         <v>49.8</v>
       </c>
-      <c r="M30" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N30" s="1" t="n">
         <v>0</v>
       </c>
@@ -2069,6 +2168,9 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="n">
         <v>49.8</v>
       </c>
     </row>
@@ -2083,8 +2185,10 @@
           <t>F0002594</t>
         </is>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>0</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>52.10.0202</t>
+        </is>
       </c>
       <c r="D31" s="1" t="n">
         <v>0</v>
@@ -2093,11 +2197,11 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
         <v>228.9</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
@@ -2123,6 +2227,9 @@
         <v>0</v>
       </c>
       <c r="P31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="n">
         <v>228.9</v>
       </c>
     </row>
@@ -2137,8 +2244,10 @@
           <t>F0000490</t>
         </is>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>0</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>50.20.0502</t>
+        </is>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
@@ -2168,15 +2277,18 @@
         <v>0</v>
       </c>
       <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
         <v>1560</v>
       </c>
-      <c r="N32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -2191,46 +2303,47 @@
           <t>F003230</t>
         </is>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="G33" s="1" t="n">
         <v>6630</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>1881.25</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="K33" s="1" t="n">
         <v>6906.5</v>
       </c>
-      <c r="K33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
         <v>17279.453</v>
       </c>
-      <c r="M33" s="1" t="n">
+      <c r="N33" s="1" t="n">
         <v>35397.03</v>
       </c>
-      <c r="N33" s="1" t="n">
+      <c r="O33" s="1" t="n">
         <v>7570</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="P33" s="1" t="n">
         <v>3445</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="Q33" s="1" t="n">
         <v>79219.23299999998</v>
       </c>
     </row>
@@ -2245,9 +2358,7 @@
           <t>F003259</t>
         </is>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" s="1" t="n">
         <v>0</v>
       </c>
@@ -2267,24 +2378,27 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
         <v>92.48</v>
       </c>
-      <c r="K34" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
         <v>92.48</v>
       </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="n">
         <v>184.96</v>
       </c>
     </row>
@@ -2299,8 +2413,10 @@
           <t>F0000666</t>
         </is>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>0</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>54.10.0502</t>
+        </is>
       </c>
       <c r="D35" s="1" t="n">
         <v>0</v>
@@ -2315,30 +2431,33 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="K35" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
         <v>2550</v>
       </c>
-      <c r="N35" s="1" t="n">
+      <c r="O35" s="1" t="n">
         <v>526.5</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="P35" s="1" t="n">
         <v>7920</v>
       </c>
-      <c r="P35" s="1" t="n">
+      <c r="Q35" s="1" t="n">
         <v>11116.5</v>
       </c>
     </row>
@@ -2353,8 +2472,10 @@
           <t>F0001676</t>
         </is>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>0</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>50.10.0503</t>
+        </is>
       </c>
       <c r="D36" s="1" t="n">
         <v>0</v>
@@ -2381,18 +2502,21 @@
         <v>0</v>
       </c>
       <c r="L36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
         <v>865.8</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="N36" s="1" t="n">
         <v>14026.2</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="O36" s="1" t="n">
         <v>2982</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="P36" s="1" t="n">
         <v>855</v>
       </c>
-      <c r="P36" s="1" t="n">
+      <c r="Q36" s="1" t="n">
         <v>18729</v>
       </c>
     </row>
@@ -2407,24 +2531,26 @@
           <t>F0000539</t>
         </is>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>0</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>54.10.0503</t>
+        </is>
       </c>
       <c r="D37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
         <v>5.4047</v>
       </c>
-      <c r="H37" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" s="1" t="n">
         <v>0</v>
       </c>
@@ -2435,18 +2561,21 @@
         <v>0</v>
       </c>
       <c r="L37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="n">
         <v>12910.61</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="N37" s="1" t="n">
         <v>14065.8898</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="O37" s="1" t="n">
         <v>5276.12</v>
       </c>
-      <c r="O37" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
         <v>32358.02450000001</v>
       </c>
     </row>
@@ -2461,15 +2590,17 @@
           <t>F0002185</t>
         </is>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>0</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>50.10.0001</t>
+        </is>
       </c>
       <c r="D38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>1416</v>
       </c>
-      <c r="E38" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" s="1" t="n">
         <v>0</v>
       </c>
@@ -2501,6 +2632,9 @@
         <v>0</v>
       </c>
       <c r="P38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="n">
         <v>1416</v>
       </c>
     </row>
@@ -2515,9 +2649,7 @@
           <t>F0001182</t>
         </is>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" s="1" t="n">
         <v>0</v>
       </c>
@@ -2525,11 +2657,11 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>793.35</v>
       </c>
-      <c r="G39" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="H39" s="1" t="n">
         <v>0</v>
       </c>
@@ -2555,6 +2687,9 @@
         <v>0</v>
       </c>
       <c r="P39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1" t="n">
         <v>793.35</v>
       </c>
     </row>
@@ -2569,9 +2704,7 @@
           <t>F0002716</t>
         </is>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" s="1" t="n">
         <v>0</v>
       </c>
@@ -2594,14 +2727,14 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="n">
         <v>631.8667</v>
       </c>
-      <c r="L40" s="1" t="n">
+      <c r="M40" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="M40" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" s="1" t="n">
         <v>0</v>
       </c>
@@ -2609,6 +2742,9 @@
         <v>0</v>
       </c>
       <c r="P40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1" t="n">
         <v>3631.8667</v>
       </c>
     </row>
@@ -2623,18 +2759,20 @@
           <t>F0001381</t>
         </is>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>0</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>52.10.0003</t>
+        </is>
       </c>
       <c r="D41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>240.03</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="F41" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="F41" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" s="1" t="n">
         <v>0</v>
       </c>
@@ -2663,6 +2801,9 @@
         <v>0</v>
       </c>
       <c r="P41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1" t="n">
         <v>340.03</v>
       </c>
     </row>
@@ -2677,9 +2818,7 @@
           <t>F0003148</t>
         </is>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" s="1" t="n">
         <v>0</v>
       </c>
@@ -2699,11 +2838,11 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="n">
         <v>1246.2</v>
       </c>
-      <c r="K42" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" s="1" t="n">
         <v>0</v>
       </c>
@@ -2717,6 +2856,9 @@
         <v>0</v>
       </c>
       <c r="P42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1" t="n">
         <v>1246.2</v>
       </c>
     </row>
@@ -2731,9 +2873,7 @@
           <t>f03269</t>
         </is>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
@@ -2762,15 +2902,18 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="n">
         <v>21740.8</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="O43" s="1" t="n">
         <v>22793.6</v>
       </c>
-      <c r="O43" s="1" t="n">
+      <c r="P43" s="1" t="n">
         <v>4600</v>
       </c>
-      <c r="P43" s="1" t="n">
+      <c r="Q43" s="1" t="n">
         <v>49134.4</v>
       </c>
     </row>
@@ -2785,9 +2928,7 @@
           <t>F0003050</t>
         </is>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" s="1" t="n">
         <v>0</v>
       </c>
@@ -2813,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="L44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="n">
         <v>995</v>
       </c>
-      <c r="M44" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" s="1" t="n">
         <v>0</v>
       </c>
@@ -2825,6 +2966,9 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1" t="n">
         <v>995</v>
       </c>
     </row>
@@ -2839,15 +2983,17 @@
           <t>F0003149</t>
         </is>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>0</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>54.10.0504</t>
+        </is>
       </c>
       <c r="D45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="E45" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" s="1" t="n">
         <v>0</v>
       </c>
@@ -2879,6 +3025,9 @@
         <v>0</v>
       </c>
       <c r="P45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -2893,18 +3042,16 @@
           <t>F0005001</t>
         </is>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="F46" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="G46" s="1" t="n">
         <v>0</v>
       </c>
@@ -2933,6 +3080,9 @@
         <v>0</v>
       </c>
       <c r="P46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2947,8 +3097,10 @@
           <t>F0002170</t>
         </is>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>0</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>52.10.0202</t>
+        </is>
       </c>
       <c r="D47" s="1" t="n">
         <v>0</v>
@@ -2978,15 +3130,18 @@
         <v>0</v>
       </c>
       <c r="M47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="n">
         <v>224.16</v>
       </c>
-      <c r="N47" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1" t="n">
         <v>224.16</v>
       </c>
     </row>
@@ -3001,9 +3156,7 @@
           <t>F0003061</t>
         </is>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" s="1" t="n">
         <v>0</v>
       </c>
@@ -3026,21 +3179,24 @@
         <v>0</v>
       </c>
       <c r="K48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="n">
         <v>86.8</v>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="M48" s="1" t="n">
         <v>1013.8</v>
       </c>
-      <c r="M48" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="n">
         <v>748.48</v>
       </c>
-      <c r="O48" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1" t="n">
         <v>1849.08</v>
       </c>
     </row>
@@ -3055,8 +3211,10 @@
           <t>F0002950</t>
         </is>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>0</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>52.10.0202</t>
+        </is>
       </c>
       <c r="D49" s="1" t="n">
         <v>0</v>
@@ -3077,11 +3235,11 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="K49" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" s="1" t="n">
         <v>0</v>
       </c>
@@ -3095,6 +3253,9 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1" t="n">
         <v>228</v>
       </c>
     </row>
@@ -3109,8 +3270,10 @@
           <t>F0010247</t>
         </is>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>0</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>50.10.0504</t>
+        </is>
       </c>
       <c r="D50" s="1" t="n">
         <v>0</v>
@@ -3137,18 +3300,21 @@
         <v>0</v>
       </c>
       <c r="L50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="n">
         <v>8278</v>
       </c>
-      <c r="M50" s="1" t="n">
+      <c r="N50" s="1" t="n">
         <v>1986.72</v>
       </c>
-      <c r="N50" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1" t="n">
         <v>2155.1</v>
       </c>
-      <c r="P50" s="1" t="n">
+      <c r="Q50" s="1" t="n">
         <v>12419.82</v>
       </c>
     </row>
@@ -3163,9 +3329,7 @@
           <t>F0007044</t>
         </is>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" s="1" t="n">
         <v>0</v>
       </c>
@@ -3194,15 +3358,18 @@
         <v>0</v>
       </c>
       <c r="M51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="n">
         <v>1156</v>
       </c>
-      <c r="N51" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1" t="n">
         <v>1156</v>
       </c>
     </row>
@@ -3217,12 +3384,10 @@
           <t>f0007036</t>
         </is>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="E52" s="1" t="n">
         <v>0</v>
       </c>
@@ -3257,6 +3422,9 @@
         <v>0</v>
       </c>
       <c r="P52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1" t="n">
         <v>270</v>
       </c>
     </row>
@@ -3271,8 +3439,10 @@
           <t>F0000042</t>
         </is>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>0</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>50.10.0706</t>
+        </is>
       </c>
       <c r="D53" s="1" t="n">
         <v>0</v>
@@ -3302,15 +3472,18 @@
         <v>0</v>
       </c>
       <c r="M53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="n">
         <v>43728</v>
       </c>
-      <c r="N53" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1" t="n">
         <v>43728</v>
       </c>
     </row>
@@ -3325,9 +3498,7 @@
           <t>F0002083</t>
         </is>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" s="1" t="n">
         <v>0</v>
       </c>
@@ -3350,21 +3521,24 @@
         <v>0</v>
       </c>
       <c r="K54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="n">
         <v>104260.61</v>
       </c>
-      <c r="L54" s="1" t="n">
+      <c r="M54" s="1" t="n">
         <v>37083.47</v>
       </c>
-      <c r="M54" s="1" t="n">
+      <c r="N54" s="1" t="n">
         <v>66420</v>
       </c>
-      <c r="N54" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1" t="n">
         <v>207764.08</v>
       </c>
     </row>
@@ -3379,8 +3553,10 @@
           <t>F0005002</t>
         </is>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>0</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>54.10.0501</t>
+        </is>
       </c>
       <c r="D55" s="1" t="n">
         <v>0</v>
@@ -3392,20 +3568,20 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="H55" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="n">
         <v>1300</v>
       </c>
-      <c r="K55" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" s="1" t="n">
         <v>0</v>
       </c>
@@ -3419,6 +3595,9 @@
         <v>0</v>
       </c>
       <c r="P55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1" t="n">
         <v>1900</v>
       </c>
     </row>
@@ -3433,8 +3612,10 @@
           <t>F03270</t>
         </is>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>0</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>54.10.0501</t>
+        </is>
       </c>
       <c r="D56" s="1" t="n">
         <v>0</v>
@@ -3461,25 +3642,28 @@
         <v>0</v>
       </c>
       <c r="L56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="n">
         <v>26473.8</v>
       </c>
-      <c r="M56" s="1" t="n">
+      <c r="N56" s="1" t="n">
         <v>18555.25</v>
       </c>
-      <c r="N56" s="1" t="n">
+      <c r="O56" s="1" t="n">
         <v>25564.76</v>
       </c>
-      <c r="O56" s="1" t="n">
+      <c r="P56" s="1" t="n">
         <v>1020.95</v>
       </c>
-      <c r="P56" s="1" t="n">
+      <c r="Q56" s="1" t="n">
         <v>71614.76000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aggiornato al: 02/10/2025</t>
+          <t>Aggiornato al: 03/10/2025 14:48:24</t>
         </is>
       </c>
     </row>
